--- a/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3Chase.xlsx
+++ b/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3Chase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Download_Project\Download\Assets\Resources\4. Data\1. VisualNovel\Dialogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dadi2\OneDrive\문서\카카오톡 받은 파일\스크립트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63E5324-88D9-4A59-8D18-07A837F18BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D686AD5A-2896-47EE-A2FF-B7593EB957AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="760" activeTab="4" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
+    <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="15027" tabRatio="760" activeTab="4" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
   </bookViews>
   <sheets>
     <sheet name="S00_1_AyakaHome" sheetId="2" r:id="rId1"/>
@@ -254,10 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(미나츠의 얼굴은 뭔가로 난도질 되어 있어 형체를 알아볼 수 있었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(내가 미나츠를 알아보게 된 것은 평소 그녀가 높게 머리를 올려 묶는다는 것뿐.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,10 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>너무, 너무 질투가 났는 걸.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>…... 응?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -461,10 +453,6 @@
   </si>
   <si>
     <t>(믿을 수 없는 압박감이 온 몸을 짓누르고 있었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(나는 벗어나기 위해서 온 몸을 비틀었다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1351,6 +1339,18 @@
   </si>
   <si>
     <t>//분노표정+전기톱 위로 든 자세 (한 발 다가옴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(미나츠의 얼굴은 뭔가로 난도질되어 있어 형체를 알아볼 수 있었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너무, 너무 질투가 났는걸.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(나는 벗어나기 위해서 온몸을 비틀었다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1571,7 +1571,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1632,12 +1632,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1659,29 +1653,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="81">
+  <dxfs count="65">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1692,6 +1684,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1699,6 +1705,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1734,6 +1747,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1741,6 +1775,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
@@ -1762,6 +1803,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1769,6 +1817,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1776,6 +1838,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
@@ -1790,6 +1873,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.89996032593768116"/>
         </patternFill>
       </fill>
@@ -1797,6 +1929,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -1804,6 +1950,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1811,6 +1978,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
@@ -1825,6 +2013,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1839,378 +2055,35 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC66"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2268,9 +2141,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2308,7 +2181,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2414,7 +2287,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2556,7 +2429,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2567,57 +2440,57 @@
   <dimension ref="A1:Z67"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA9" sqref="A9:AA9"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="7.296875" customWidth="1"/>
-    <col min="5" max="5" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="7.25" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
     <col min="6" max="6" width="53" customWidth="1"/>
-    <col min="7" max="7" width="14.796875" customWidth="1"/>
-    <col min="8" max="8" width="14.296875" customWidth="1"/>
-    <col min="9" max="9" width="3.796875" customWidth="1"/>
-    <col min="10" max="10" width="3.59765625" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="9" max="9" width="3.75" customWidth="1"/>
+    <col min="10" max="10" width="3.625" customWidth="1"/>
     <col min="11" max="11" width="3.5" customWidth="1"/>
-    <col min="12" max="12" width="3.59765625" customWidth="1"/>
+    <col min="12" max="12" width="3.625" customWidth="1"/>
     <col min="13" max="13" width="3.5" customWidth="1"/>
     <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="13.19921875" customWidth="1"/>
-    <col min="16" max="16" width="10.3984375" customWidth="1"/>
-    <col min="17" max="17" width="9.8984375" customWidth="1"/>
-    <col min="18" max="18" width="12.3984375" customWidth="1"/>
+    <col min="15" max="15" width="13.25" customWidth="1"/>
+    <col min="16" max="16" width="10.375" customWidth="1"/>
+    <col min="17" max="17" width="9.875" customWidth="1"/>
+    <col min="18" max="18" width="12.375" customWidth="1"/>
     <col min="19" max="19" width="12.5" customWidth="1"/>
     <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="13.19921875" customWidth="1"/>
+    <col min="21" max="21" width="13.25" customWidth="1"/>
     <col min="22" max="22" width="13.5" customWidth="1"/>
-    <col min="23" max="23" width="13.3984375" customWidth="1"/>
-    <col min="24" max="24" width="13.296875" customWidth="1"/>
-    <col min="26" max="26" width="14.296875" customWidth="1"/>
+    <col min="23" max="23" width="13.375" customWidth="1"/>
+    <col min="24" max="24" width="13.25" customWidth="1"/>
+    <col min="26" max="26" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
@@ -2645,182 +2518,182 @@
         <v>6</v>
       </c>
       <c r="P1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S1" t="s">
         <v>130</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>131</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>132</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>133</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>134</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>135</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>136</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>137</v>
       </c>
-      <c r="X1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="22">
+      <c r="A2" s="20">
         <v>0</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="20">
         <v>0</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="20">
         <v>0</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="1:26" ht="25.8" customHeight="1">
-      <c r="A3" s="22">
-        <v>1</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22">
+      <c r="D2" s="20"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:26" ht="25.85" customHeight="1">
+      <c r="A3" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>123</v>
+      <c r="G3" s="22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="31.2" customHeight="1">
-      <c r="A4" s="22">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="25.8" customHeight="1">
-      <c r="A5" s="22">
-        <v>1</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22">
+      <c r="G4" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="25.85" customHeight="1">
+      <c r="A5" s="20">
+        <v>1</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="24" t="s">
-        <v>123</v>
+      <c r="G5" s="22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="22">
-        <v>1</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22">
+      <c r="A6" s="20">
+        <v>1</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="24" t="s">
-        <v>123</v>
+      <c r="G6" s="22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="22">
-        <v>1</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22">
+      <c r="A7" s="20">
+        <v>1</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="24" t="s">
-        <v>123</v>
+      <c r="G7" s="22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="28.2" customHeight="1">
-      <c r="A8" s="22">
-        <v>3</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="A8" s="20">
+        <v>3</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="24"/>
+      <c r="F8" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="22"/>
       <c r="O8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="30" customHeight="1">
-      <c r="A9" s="22">
-        <v>3</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="G9" s="22"/>
+    <row r="9" spans="1:26" ht="29.95" customHeight="1">
+      <c r="A9" s="20">
+        <v>3</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" s="20"/>
       <c r="O9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P9" t="b">
         <v>1</v>
@@ -2829,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="S9">
         <v>2</v>
@@ -2838,289 +2711,289 @@
         <v>1</v>
       </c>
       <c r="U9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="V9">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="22">
-        <v>3</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22">
+      <c r="A10" s="20">
+        <v>3</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="24" t="s">
-        <v>147</v>
+      <c r="H10" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="O10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="22">
-        <v>3</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22">
+      <c r="A11" s="20">
+        <v>3</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20">
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="24" t="s">
-        <v>147</v>
+      <c r="H11" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="O11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="22">
-        <v>3</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22">
+      <c r="A12" s="20">
+        <v>3</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20">
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="24" t="s">
-        <v>148</v>
+      <c r="H12" s="22" t="s">
+        <v>145</v>
       </c>
       <c r="O12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W12">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="22">
-        <v>3</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22">
+      <c r="A13" s="20">
+        <v>3</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20">
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="24" t="s">
-        <v>147</v>
+      <c r="H13" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="O13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W13">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="22">
-        <v>3</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22">
+      <c r="A14" s="20">
+        <v>3</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="24" t="s">
-        <v>147</v>
+      <c r="H14" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="22">
-        <v>3</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22">
+      <c r="A15" s="20">
+        <v>3</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20">
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="24" t="s">
-        <v>147</v>
+      <c r="H15" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="O15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="22">
-        <v>3</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22">
+      <c r="A16" s="20">
+        <v>3</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20">
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="24" t="s">
-        <v>147</v>
+      <c r="H16" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="O16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="22">
-        <v>3</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22">
+      <c r="A17" s="20">
+        <v>3</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20">
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="24" t="s">
-        <v>147</v>
+      <c r="H17" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="O17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="22">
-        <v>3</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22">
+      <c r="A18" s="20">
+        <v>3</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20">
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="24" t="s">
+      <c r="G18" s="23"/>
+      <c r="H18" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="O18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="20">
+        <v>3</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="O19" t="s">
         <v>147</v>
       </c>
-      <c r="O18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="22">
-        <v>3</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="O19" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="1"/>
-      <c r="G20" s="22"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="22"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="22"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="22"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="22"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="22"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="22"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:15">
       <c r="E27" s="1"/>
@@ -3289,41 +3162,39 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A8 A10:A1048576">
-    <cfRule type="containsText" dxfId="80" priority="19" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="64" priority="19" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="21" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="63" priority="21" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D8 D20:D1048576 D10:D18">
-    <cfRule type="containsText" dxfId="78" priority="16" operator="containsText" text="2">
+  <conditionalFormatting sqref="D1:D8 D10:D18 D20:D1048576">
+    <cfRule type="containsText" dxfId="62" priority="16" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="17" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="61" priority="17" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="18" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="60" priority="18" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19 G3:G8 E3:E8 E20:E67 E10:E18 G18 H10:H18">
-    <cfRule type="containsText" dxfId="75" priority="13" operator="containsText" text="히나">
+  <conditionalFormatting sqref="E3:E8 G3:G8 E10:E18 H10:H18 G18 F19 E20:E67">
+    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="나레이션">
+      <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="4" operator="containsText" text="미나츠">
+      <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="13" operator="containsText" text="히나">
       <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="14" operator="containsText" text="아야카">
+    <cfRule type="containsText" dxfId="56" priority="14" operator="containsText" text="아야카">
       <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="15" operator="containsText" text="{{PLAYER_NAME}}">
+    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="{{PLAYER_NAME}}">
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19 E3:E8 G3:G8 E20:E67 E10:E18 G18 H10:H18">
-    <cfRule type="containsText" dxfId="72" priority="1" operator="containsText" text="나레이션">
-      <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="4" operator="containsText" text="미나츠">
-      <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3335,38 +3206,38 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="1" max="1" width="10.796875" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" customWidth="1"/>
-    <col min="6" max="6" width="65.296875" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" customWidth="1"/>
-    <col min="11" max="11" width="8.796875" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="65.25" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="11" max="11" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
@@ -3394,37 +3265,37 @@
         <v>6</v>
       </c>
       <c r="P1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S1" t="s">
         <v>130</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>131</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>132</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>133</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>134</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>135</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>136</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>137</v>
-      </c>
-      <c r="X1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -3441,7 +3312,7 @@
         <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -3455,10 +3326,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -3472,10 +3343,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -3489,10 +3360,10 @@
         <v>12</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -3506,10 +3377,10 @@
         <v>12</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -3520,13 +3391,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -3540,10 +3411,10 @@
         <v>16</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="G8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -3557,10 +3428,10 @@
         <v>16</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -3574,10 +3445,10 @@
         <v>16</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -3591,10 +3462,10 @@
         <v>16</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -3608,10 +3479,10 @@
         <v>16</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -3625,10 +3496,10 @@
         <v>16</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -3642,10 +3513,10 @@
         <v>16</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -3659,10 +3530,10 @@
         <v>12</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -3676,10 +3547,10 @@
         <v>16</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3693,10 +3564,10 @@
         <v>16</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3710,10 +3581,10 @@
         <v>16</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3727,10 +3598,10 @@
         <v>16</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3744,10 +3615,10 @@
         <v>16</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="64.2" customHeight="1">
@@ -3761,10 +3632,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3778,10 +3649,10 @@
         <v>16</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3795,10 +3666,10 @@
         <v>16</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3814,73 +3685,40 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="containsText" dxfId="54" priority="4" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D23">
+    <cfRule type="containsText" dxfId="52" priority="1" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="2" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="3" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E2:E23">
-    <cfRule type="containsText" dxfId="70" priority="15" operator="containsText" text="나레이션">
+    <cfRule type="containsText" dxfId="49" priority="15" operator="containsText" text="나레이션">
       <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="16" operator="containsText" text="히나">
+    <cfRule type="containsText" dxfId="48" priority="16" operator="containsText" text="히나">
       <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="17" operator="containsText" text="아야카">
+    <cfRule type="containsText" dxfId="47" priority="17" operator="containsText" text="아야카">
       <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="18" operator="containsText" text="미나츠">
+    <cfRule type="containsText" dxfId="46" priority="18" operator="containsText" text="미나츠">
       <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="19" operator="containsText" text="{{PLAYER_NAME}}">
+    <cfRule type="containsText" dxfId="45" priority="19" operator="containsText" text="{{PLAYER_NAME}}">
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D14">
-    <cfRule type="containsText" dxfId="65" priority="12" operator="containsText" text="2">
-      <formula>NOT(ISERROR(SEARCH("2",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="13" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="14" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="62" priority="9" operator="containsText" text="2">
-      <formula>NOT(ISERROR(SEARCH("2",D15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="10" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",D15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="11" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",D15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D23">
-    <cfRule type="containsText" dxfId="59" priority="6" operator="containsText" text="2">
-      <formula>NOT(ISERROR(SEARCH("2",D16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="7" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",D16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="8" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",D16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="2">
-      <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="2" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3892,37 +3730,37 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D24" sqref="A24:D24"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="17.59765625" customWidth="1"/>
-    <col min="6" max="6" width="42.8984375" customWidth="1"/>
-    <col min="7" max="7" width="16.59765625" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="42.875" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
@@ -3950,37 +3788,37 @@
         <v>6</v>
       </c>
       <c r="P1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S1" t="s">
         <v>130</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>131</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>132</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>133</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>134</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>135</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>136</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>137</v>
-      </c>
-      <c r="X1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -3994,10 +3832,10 @@
         <v>12</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -4011,10 +3849,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -4028,10 +3866,10 @@
         <v>16</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -4045,10 +3883,10 @@
         <v>16</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -4062,10 +3900,10 @@
         <v>16</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -4079,10 +3917,10 @@
         <v>16</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -4096,10 +3934,10 @@
         <v>16</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -4113,10 +3951,10 @@
         <v>16</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -4130,10 +3968,10 @@
         <v>16</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -4147,13 +3985,13 @@
         <v>16</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="46.8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="44.95">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4164,10 +4002,10 @@
         <v>16</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -4181,10 +4019,10 @@
         <v>16</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -4198,10 +4036,10 @@
         <v>16</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -4215,10 +4053,10 @@
         <v>16</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -4232,10 +4070,10 @@
         <v>16</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4249,10 +4087,10 @@
         <v>16</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4266,10 +4104,10 @@
         <v>16</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4283,10 +4121,10 @@
         <v>16</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4300,10 +4138,10 @@
         <v>16</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4317,10 +4155,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4334,10 +4172,10 @@
         <v>16</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4351,10 +4189,10 @@
         <v>16</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4370,40 +4208,40 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E23">
-    <cfRule type="containsText" dxfId="51" priority="6" operator="containsText" text="나레이션">
-      <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="7" operator="containsText" text="히나">
-      <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="8" operator="containsText" text="아야카">
-      <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="9" operator="containsText" text="미나츠">
-      <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="10" operator="containsText" text="{{PLAYER_NAME}}">
-      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="46" priority="4" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="5" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="42" priority="1" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="2" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="41" priority="2" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="3" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="40" priority="3" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E23">
+    <cfRule type="containsText" dxfId="39" priority="6" operator="containsText" text="나레이션">
+      <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="7" operator="containsText" text="히나">
+      <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="8" operator="containsText" text="아야카">
+      <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="9" operator="containsText" text="미나츠">
+      <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="10" operator="containsText" text="{{PLAYER_NAME}}">
+      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4415,36 +4253,36 @@
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="45.796875" customWidth="1"/>
-    <col min="7" max="7" width="14.8984375" customWidth="1"/>
+    <col min="6" max="6" width="45.75" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
@@ -4472,37 +4310,37 @@
         <v>6</v>
       </c>
       <c r="P1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S1" t="s">
         <v>130</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>131</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>132</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>133</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>134</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>135</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>136</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>137</v>
-      </c>
-      <c r="X1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -4516,10 +4354,10 @@
         <v>12</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -4533,10 +4371,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -4550,10 +4388,10 @@
         <v>16</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -4567,10 +4405,10 @@
         <v>16</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -4584,10 +4422,10 @@
         <v>16</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -4601,10 +4439,10 @@
         <v>16</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -4618,10 +4456,10 @@
         <v>16</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -4635,10 +4473,10 @@
         <v>16</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -4652,10 +4490,10 @@
         <v>16</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -4669,10 +4507,10 @@
         <v>16</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -4686,10 +4524,10 @@
         <v>16</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -4703,10 +4541,10 @@
         <v>16</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -4722,40 +4560,40 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E13">
-    <cfRule type="containsText" dxfId="41" priority="6" operator="containsText" text="나레이션">
-      <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="7" operator="containsText" text="히나">
-      <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="8" operator="containsText" text="아야카">
-      <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="9" operator="containsText" text="미나츠">
-      <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="10" operator="containsText" text="{{PLAYER_NAME}}">
-      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="36" priority="4" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="34" priority="1" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="2" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="31" priority="2" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E13">
+    <cfRule type="containsText" dxfId="29" priority="6" operator="containsText" text="나레이션">
+      <formula>NOT(ISERROR(SEARCH("나레이션",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="히나">
+      <formula>NOT(ISERROR(SEARCH("히나",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="8" operator="containsText" text="아야카">
+      <formula>NOT(ISERROR(SEARCH("아야카",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="미나츠">
+      <formula>NOT(ISERROR(SEARCH("미나츠",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="10" operator="containsText" text="{{PLAYER_NAME}}">
+      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4764,44 +4602,44 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CD0CE6-8A09-40C8-B7EB-05D0DE918DCB}">
-  <dimension ref="A1:Z45"/>
+  <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <cols>
-    <col min="5" max="5" width="18.69921875" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
     <col min="6" max="6" width="63.5" customWidth="1"/>
-    <col min="7" max="7" width="14.59765625" customWidth="1"/>
-    <col min="8" max="8" width="36.3984375" customWidth="1"/>
-    <col min="15" max="15" width="14.796875" customWidth="1"/>
-    <col min="16" max="16" width="9.8984375" customWidth="1"/>
-    <col min="17" max="18" width="8.796875" customWidth="1"/>
-    <col min="23" max="23" width="13.19921875" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="36.375" customWidth="1"/>
+    <col min="15" max="15" width="14.75" customWidth="1"/>
+    <col min="16" max="16" width="9.875" customWidth="1"/>
+    <col min="17" max="18" width="8.75" customWidth="1"/>
+    <col min="23" max="23" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
@@ -4829,52 +4667,52 @@
         <v>6</v>
       </c>
       <c r="P1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S1" t="s">
         <v>130</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>131</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>132</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>133</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>134</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>135</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>136</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>137</v>
       </c>
-      <c r="X1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="21">
+      <c r="A2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="21">
+      <c r="A3">
         <v>3</v>
       </c>
       <c r="D3">
@@ -4884,17 +4722,17 @@
         <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>147</v>
+        <v>85</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="O3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="21">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="D4">
@@ -4904,16 +4742,16 @@
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="20"/>
+        <v>86</v>
+      </c>
+      <c r="H4" s="12"/>
       <c r="I4" s="13"/>
       <c r="O4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="21">
+      <c r="A5">
         <v>3</v>
       </c>
       <c r="D5">
@@ -4923,16 +4761,16 @@
         <v>12</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="20"/>
+        <v>160</v>
+      </c>
+      <c r="H5" s="12"/>
       <c r="I5" s="13"/>
       <c r="O5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="21">
+      <c r="A6">
         <v>3</v>
       </c>
       <c r="D6">
@@ -4942,16 +4780,16 @@
         <v>12</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="20"/>
+        <v>87</v>
+      </c>
+      <c r="H6" s="12"/>
       <c r="I6" s="13"/>
       <c r="O6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="21">
+      <c r="A7">
         <v>3</v>
       </c>
       <c r="D7">
@@ -4961,16 +4799,16 @@
         <v>16</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="20"/>
+        <v>88</v>
+      </c>
+      <c r="H7" s="12"/>
       <c r="I7" s="13"/>
       <c r="O7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="21">
+      <c r="A8">
         <v>3</v>
       </c>
       <c r="D8">
@@ -4980,16 +4818,16 @@
         <v>16</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H8" s="20"/>
+        <v>89</v>
+      </c>
+      <c r="H8" s="12"/>
       <c r="I8" s="13"/>
       <c r="O8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="21">
+      <c r="A9">
         <v>3</v>
       </c>
       <c r="D9">
@@ -4999,16 +4837,16 @@
         <v>16</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H9" s="20"/>
+        <v>90</v>
+      </c>
+      <c r="H9" s="12"/>
       <c r="I9" s="13"/>
       <c r="O9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="21">
+      <c r="A10">
         <v>3</v>
       </c>
       <c r="D10">
@@ -5018,31 +4856,31 @@
         <v>12</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="22" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="21">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>148</v>
       </c>
       <c r="I11" s="13"/>
       <c r="O11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
@@ -5052,21 +4890,21 @@
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="21">
+      <c r="A12">
         <v>3</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="H12" s="20"/>
+      <c r="F12" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" s="12"/>
       <c r="I12" s="13"/>
       <c r="O12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="21">
+      <c r="A13">
         <v>3</v>
       </c>
       <c r="D13">
@@ -5076,16 +4914,16 @@
         <v>16</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="20"/>
+        <v>93</v>
+      </c>
+      <c r="H13" s="12"/>
       <c r="I13" s="13"/>
       <c r="O13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="21">
+      <c r="A14">
         <v>3</v>
       </c>
       <c r="D14">
@@ -5095,16 +4933,16 @@
         <v>16</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="20"/>
+        <v>94</v>
+      </c>
+      <c r="H14" s="12"/>
       <c r="I14" s="13"/>
       <c r="O14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="21">
+      <c r="A15">
         <v>3</v>
       </c>
       <c r="D15">
@@ -5114,16 +4952,16 @@
         <v>16</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="20"/>
+        <v>95</v>
+      </c>
+      <c r="H15" s="12"/>
       <c r="I15" s="13"/>
       <c r="O15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="21">
+      <c r="A16">
         <v>3</v>
       </c>
       <c r="D16">
@@ -5133,16 +4971,16 @@
         <v>16</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="20"/>
+        <v>96</v>
+      </c>
+      <c r="H16" s="12"/>
       <c r="I16" s="13"/>
       <c r="O16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" s="21">
+      <c r="A17">
         <v>3</v>
       </c>
       <c r="D17">
@@ -5152,16 +4990,16 @@
         <v>12</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" s="20"/>
+        <v>97</v>
+      </c>
+      <c r="H17" s="12"/>
       <c r="I17" s="13"/>
       <c r="O17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" s="21">
+      <c r="A18">
         <v>3</v>
       </c>
       <c r="D18">
@@ -5171,16 +5009,16 @@
         <v>12</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H18" s="20"/>
+        <v>98</v>
+      </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="13"/>
       <c r="O18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" s="21">
+      <c r="A19">
         <v>3</v>
       </c>
       <c r="D19">
@@ -5190,16 +5028,16 @@
         <v>16</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" s="20"/>
+        <v>99</v>
+      </c>
+      <c r="H19" s="12"/>
       <c r="I19" s="13"/>
       <c r="O19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" s="21">
+      <c r="A20">
         <v>3</v>
       </c>
       <c r="D20">
@@ -5209,16 +5047,16 @@
         <v>16</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="H20" s="12"/>
       <c r="I20" s="13"/>
       <c r="O20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" s="21">
+      <c r="A21">
         <v>3</v>
       </c>
       <c r="D21">
@@ -5228,16 +5066,16 @@
         <v>16</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21" s="20"/>
+        <v>101</v>
+      </c>
+      <c r="H21" s="12"/>
       <c r="I21" s="13"/>
       <c r="O21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" s="21">
+      <c r="A22">
         <v>3</v>
       </c>
       <c r="D22">
@@ -5247,16 +5085,16 @@
         <v>16</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="20"/>
+        <v>102</v>
+      </c>
+      <c r="H22" s="12"/>
       <c r="I22" s="13"/>
       <c r="O22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" s="21">
+      <c r="A23">
         <v>3</v>
       </c>
       <c r="D23">
@@ -5266,16 +5104,16 @@
         <v>16</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" s="20"/>
+        <v>103</v>
+      </c>
+      <c r="H23" s="12"/>
       <c r="I23" s="13"/>
       <c r="O23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" s="21">
+      <c r="A24">
         <v>3</v>
       </c>
       <c r="D24">
@@ -5285,16 +5123,16 @@
         <v>16</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="20"/>
+        <v>104</v>
+      </c>
+      <c r="H24" s="12"/>
       <c r="I24" s="13"/>
       <c r="O24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="124.8">
-      <c r="A25" s="21">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="119.8">
+      <c r="A25">
         <v>3</v>
       </c>
       <c r="D25">
@@ -5304,16 +5142,16 @@
         <v>16</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" s="20"/>
+        <v>105</v>
+      </c>
+      <c r="H25" s="12"/>
       <c r="I25" s="13"/>
       <c r="O25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:25">
-      <c r="A26" s="21">
+      <c r="A26">
         <v>3</v>
       </c>
       <c r="D26">
@@ -5323,20 +5161,20 @@
         <v>16</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>147</v>
+        <v>106</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="O26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W26">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:25">
-      <c r="A27" s="21">
+      <c r="A27">
         <v>3</v>
       </c>
       <c r="D27">
@@ -5346,27 +5184,27 @@
         <v>16</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>148</v>
+        <v>107</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>145</v>
       </c>
       <c r="O27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W27">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:25">
-      <c r="A28" s="21">
-        <v>3</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>158</v>
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>155</v>
       </c>
       <c r="O28" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
@@ -5379,7 +5217,7 @@
       </c>
     </row>
     <row r="29" spans="1:25">
-      <c r="A29" s="21">
+      <c r="A29">
         <v>3</v>
       </c>
       <c r="D29">
@@ -5389,34 +5227,34 @@
         <v>16</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>159</v>
+        <v>108</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="I29" s="13"/>
       <c r="O29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W29">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:25">
-      <c r="A30" s="21">
-        <v>3</v>
-      </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="34"/>
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
       <c r="O30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
@@ -5428,14 +5266,14 @@
         <v>1</v>
       </c>
       <c r="U30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="V30">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:25">
-      <c r="A31" s="21">
+      <c r="A31">
         <v>3</v>
       </c>
       <c r="D31">
@@ -5445,16 +5283,16 @@
         <v>16</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H31" s="33"/>
+        <v>109</v>
+      </c>
+      <c r="H31" s="22"/>
       <c r="I31" s="13"/>
       <c r="O31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:25">
-      <c r="A32" s="21">
+      <c r="A32">
         <v>3</v>
       </c>
       <c r="D32">
@@ -5464,16 +5302,16 @@
         <v>16</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H32" s="33"/>
+        <v>110</v>
+      </c>
+      <c r="H32" s="22"/>
       <c r="I32" s="13"/>
       <c r="O32" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:23">
-      <c r="A33" s="21">
+      <c r="A33">
         <v>3</v>
       </c>
       <c r="D33">
@@ -5483,16 +5321,16 @@
         <v>16</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H33" s="34"/>
+        <v>111</v>
+      </c>
+      <c r="H33" s="20"/>
       <c r="I33" s="13"/>
       <c r="O33" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:23">
-      <c r="A34" s="21">
+      <c r="A34">
         <v>3</v>
       </c>
       <c r="D34">
@@ -5502,16 +5340,16 @@
         <v>16</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H34" s="33"/>
+        <v>112</v>
+      </c>
+      <c r="H34" s="22"/>
       <c r="I34" s="13"/>
       <c r="O34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:23">
-      <c r="A35" s="21">
+      <c r="A35">
         <v>3</v>
       </c>
       <c r="D35">
@@ -5521,16 +5359,16 @@
         <v>16</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H35" s="33"/>
+        <v>113</v>
+      </c>
+      <c r="H35" s="22"/>
       <c r="I35" s="13"/>
       <c r="O35" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:23">
-      <c r="A36" s="21">
+      <c r="A36">
         <v>3</v>
       </c>
       <c r="D36">
@@ -5540,16 +5378,16 @@
         <v>16</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H36" s="33"/>
+        <v>114</v>
+      </c>
+      <c r="H36" s="22"/>
       <c r="I36" s="13"/>
       <c r="O36" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:23">
-      <c r="A37" s="21">
+      <c r="A37">
         <v>3</v>
       </c>
       <c r="D37">
@@ -5559,29 +5397,29 @@
         <v>16</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H37" s="33"/>
+        <v>115</v>
+      </c>
+      <c r="H37" s="22"/>
       <c r="I37" s="13"/>
       <c r="O37" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:23">
-      <c r="A38" s="21">
-        <v>3</v>
-      </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="G38" s="22"/>
-      <c r="H38" s="34"/>
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
       <c r="O38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
@@ -5593,14 +5431,14 @@
         <v>1</v>
       </c>
       <c r="U38" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="V38">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:23">
-      <c r="A39" s="21">
+      <c r="A39">
         <v>3</v>
       </c>
       <c r="D39">
@@ -5610,16 +5448,16 @@
         <v>16</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="H39" s="33"/>
+        <v>116</v>
+      </c>
+      <c r="H39" s="22"/>
       <c r="I39" s="13"/>
       <c r="O39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:23">
-      <c r="A40" s="21">
+      <c r="A40">
         <v>3</v>
       </c>
       <c r="D40">
@@ -5629,16 +5467,16 @@
         <v>16</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="H40" s="33"/>
+        <v>117</v>
+      </c>
+      <c r="H40" s="22"/>
       <c r="I40" s="13"/>
       <c r="O40" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:23">
-      <c r="A41" s="21">
+      <c r="A41">
         <v>3</v>
       </c>
       <c r="D41">
@@ -5648,21 +5486,21 @@
         <v>16</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H41" s="33" t="s">
-        <v>160</v>
+        <v>118</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>157</v>
       </c>
       <c r="I41" s="13"/>
       <c r="O41" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="W41">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:23">
-      <c r="A42" s="21">
+      <c r="A42">
         <v>3</v>
       </c>
       <c r="D42">
@@ -5672,152 +5510,123 @@
         <v>16</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H42" s="33"/>
+        <v>119</v>
+      </c>
+      <c r="H42" s="22"/>
       <c r="I42" s="13"/>
       <c r="O42" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W42">
         <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:23">
-      <c r="A43" s="21">
+      <c r="A43">
         <v>2</v>
       </c>
-      <c r="H43" s="34"/>
+      <c r="H43" s="20"/>
       <c r="N43">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
-      <c r="A44" s="21"/>
-    </row>
-    <row r="45" spans="1:23">
-      <c r="A45" s="21"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H4:H7 H9 H23:H25 H11:H21 E3:E27 H29 H31:H32 E29 H34:H37 E31:E37 H39:H42 E39:E42">
-    <cfRule type="containsText" dxfId="31" priority="28" operator="containsText" text="나레이션">
-      <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="히나">
-      <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="아야카">
-      <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="미나츠">
-      <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="32" operator="containsText" text="{{PLAYER_NAME}}">
-      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="1">
+  <conditionalFormatting sqref="A1:A2">
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",A2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",A2)))</formula>
+  <conditionalFormatting sqref="E3:E27 H4:H7 H9 H11:H21 H23:H25 E29 H29 H31:H32 E31:E37 H34:H37 E39:E42 H39:H42">
+    <cfRule type="containsText" dxfId="19" priority="32" operator="containsText" text="{{PLAYER_NAME}}">
+      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E27 H9 H11:H21 E29 H29 H31:H32 E31:E37 H34:H37 E39:E42 H39:H42 H4:H7 H23:H25">
+    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="미나츠">
+      <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E27 H9 H11:H21 E29 H29 H31:H32 E31:E37 H34:H37 E39:E42 H39:H42">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="히나">
+      <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="30" operator="containsText" text="아야카">
+      <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="히나">
-      <formula>NOT(ISERROR(SEARCH("히나",H3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="아야카">
-      <formula>NOT(ISERROR(SEARCH("아야카",H3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="{{PLAYER_NAME}}">
-      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",H3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="나레이션">
-      <formula>NOT(ISERROR(SEARCH("나레이션",H3)))</formula>
-    </cfRule>
     <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="미나츠">
       <formula>NOT(ISERROR(SEARCH("미나츠",H3)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="20" operator="containsText" text="{{PLAYER_NAME}}">
+      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",H3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H7">
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="나레이션">
+      <formula>NOT(ISERROR(SEARCH("나레이션",H3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="히나">
+      <formula>NOT(ISERROR(SEARCH("히나",H3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="아야카">
+      <formula>NOT(ISERROR(SEARCH("아야카",H3)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="히나">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="나레이션">
+      <formula>NOT(ISERROR(SEARCH("나레이션",H11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="미나츠">
+      <formula>NOT(ISERROR(SEARCH("미나츠",H11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="히나">
       <formula>NOT(ISERROR(SEARCH("히나",H11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="아야카">
+    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="아야카">
       <formula>NOT(ISERROR(SEARCH("아야카",H11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="{{PLAYER_NAME}}">
+    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="{{PLAYER_NAME}}">
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="나레이션">
-      <formula>NOT(ISERROR(SEARCH("나레이션",H11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="미나츠">
-      <formula>NOT(ISERROR(SEARCH("미나츠",H11)))</formula>
+  <conditionalFormatting sqref="H11:H21 E3:E27 H9 E29 H29 H31:H32 E31:E37 H34:H37 E39:E42 H39:H42">
+    <cfRule type="containsText" dxfId="5" priority="28" operator="containsText" text="나레이션">
+      <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="히나">
-      <formula>NOT(ISERROR(SEARCH("히나",H26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="아야카">
-      <formula>NOT(ISERROR(SEARCH("아야카",H26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="{{PLAYER_NAME}}">
+  <conditionalFormatting sqref="H23:H27">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="나레이션">
+      <formula>NOT(ISERROR(SEARCH("나레이션",H23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="히나">
+      <formula>NOT(ISERROR(SEARCH("히나",H23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="아야카">
+      <formula>NOT(ISERROR(SEARCH("아야카",H23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:H27">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="미나츠">
+      <formula>NOT(ISERROR(SEARCH("미나츠",H26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",H26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="나레이션">
-      <formula>NOT(ISERROR(SEARCH("나레이션",H26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="미나츠">
-      <formula>NOT(ISERROR(SEARCH("미나츠",H26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="히나">
-      <formula>NOT(ISERROR(SEARCH("히나",H27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="아야카">
-      <formula>NOT(ISERROR(SEARCH("아야카",H27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="{{PLAYER_NAME}}">
-      <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",H27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="나레이션">
-      <formula>NOT(ISERROR(SEARCH("나레이션",H27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="미나츠">
-      <formula>NOT(ISERROR(SEARCH("미나츠",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3Chase.xlsx
+++ b/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3Chase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dadi2\OneDrive\문서\카카오톡 받은 파일\스크립트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zenu0\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D686AD5A-2896-47EE-A2FF-B7593EB957AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A677F70B-3F32-4DCF-8A2A-A05B26F5BB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="15027" tabRatio="760" activeTab="4" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="760" activeTab="4" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
   </bookViews>
   <sheets>
     <sheet name="S00_1_AyakaHome" sheetId="2" r:id="rId1"/>
@@ -2439,11 +2439,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2492B5-5286-4C51-A0EE-617DAAF7402C}">
   <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
@@ -2566,7 +2566,7 @@
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:26" ht="25.85" customHeight="1">
+    <row r="3" spans="1:26" ht="25.9" customHeight="1">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="31.2" customHeight="1">
+    <row r="4" spans="1:26" ht="31.15" customHeight="1">
       <c r="A4" s="20">
         <v>1</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="25.85" customHeight="1">
+    <row r="5" spans="1:26" ht="25.9" customHeight="1">
       <c r="A5" s="20">
         <v>1</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="28.2" customHeight="1">
+    <row r="8" spans="1:26" ht="28.15" customHeight="1">
       <c r="A8" s="20">
         <v>3</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="29.95" customHeight="1">
+    <row r="9" spans="1:26" ht="30" customHeight="1">
       <c r="A9" s="20">
         <v>3</v>
       </c>
@@ -3205,11 +3205,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6657601-61C0-480F-AB83-2DBC653E47EB}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="5" max="5" width="16.125" customWidth="1"/>
@@ -3621,7 +3621,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="64.2" customHeight="1">
+    <row r="21" spans="1:7" ht="64.150000000000006" customHeight="1">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3733,7 +3733,7 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="17.625" customWidth="1"/>
     <col min="6" max="6" width="42.875" customWidth="1"/>
@@ -3991,7 +3991,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="44.95">
+    <row r="12" spans="1:26" ht="40.5">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4256,7 +4256,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="45.75" customWidth="1"/>
@@ -4608,7 +4608,7 @@
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="18.75" customWidth="1"/>
     <col min="6" max="6" width="63.5" customWidth="1"/>
@@ -5131,7 +5131,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="119.8">
+    <row r="25" spans="1:25" ht="108">
       <c r="A25">
         <v>3</v>
       </c>

--- a/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3Chase.xlsx
+++ b/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day3Chase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zenu0\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Download_Project\Download\Assets\Resources\4. Data\1. VisualNovel\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A677F70B-3F32-4DCF-8A2A-A05B26F5BB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F3520C-47F4-418F-A138-01ADE6D84638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="760" activeTab="4" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="760" activeTab="4" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
   </bookViews>
   <sheets>
     <sheet name="S00_1_AyakaHome" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="169">
   <si>
     <t>dialogType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1352,6 +1352,32 @@
   <si>
     <t>(나는 벗어나기 위해서 온몸을 비틀었다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KI01</t>
+  </si>
+  <si>
+    <t>KI04</t>
+  </si>
+  <si>
+    <t>KI05</t>
+  </si>
+  <si>
+    <t>KI02</t>
+  </si>
+  <si>
+    <t>KI06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KI07</t>
+  </si>
+  <si>
+    <t>KI08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
   </si>
 </sst>
 </file>
@@ -2141,9 +2167,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2181,7 +2207,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2287,7 +2313,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2429,7 +2455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2437,41 +2463,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2492B5-5286-4C51-A0EE-617DAAF7402C}">
-  <dimension ref="A1:Z67"/>
+  <dimension ref="A1:AA67"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="9.59765625" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="7.25" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" customWidth="1"/>
     <col min="6" max="6" width="53" customWidth="1"/>
-    <col min="7" max="7" width="14.75" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
-    <col min="9" max="9" width="3.75" customWidth="1"/>
-    <col min="10" max="10" width="3.625" customWidth="1"/>
-    <col min="11" max="11" width="3.5" customWidth="1"/>
-    <col min="12" max="12" width="3.625" customWidth="1"/>
-    <col min="13" max="13" width="3.5" customWidth="1"/>
-    <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="13.25" customWidth="1"/>
-    <col min="16" max="16" width="10.375" customWidth="1"/>
-    <col min="17" max="17" width="9.875" customWidth="1"/>
-    <col min="18" max="18" width="12.375" customWidth="1"/>
-    <col min="19" max="19" width="12.5" customWidth="1"/>
-    <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="13.25" customWidth="1"/>
-    <col min="22" max="22" width="13.5" customWidth="1"/>
-    <col min="23" max="23" width="13.375" customWidth="1"/>
-    <col min="24" max="24" width="13.25" customWidth="1"/>
-    <col min="26" max="26" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="14.69921875" customWidth="1"/>
+    <col min="8" max="9" width="14.19921875" customWidth="1"/>
+    <col min="10" max="10" width="3.69921875" customWidth="1"/>
+    <col min="11" max="11" width="3.59765625" customWidth="1"/>
+    <col min="12" max="12" width="3.5" customWidth="1"/>
+    <col min="13" max="13" width="3.59765625" customWidth="1"/>
+    <col min="14" max="14" width="3.5" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="16" max="16" width="13.19921875" customWidth="1"/>
+    <col min="17" max="17" width="10.3984375" customWidth="1"/>
+    <col min="18" max="18" width="9.8984375" customWidth="1"/>
+    <col min="19" max="19" width="12.3984375" customWidth="1"/>
+    <col min="20" max="20" width="12.5" customWidth="1"/>
+    <col min="21" max="21" width="11" customWidth="1"/>
+    <col min="22" max="22" width="13.19921875" customWidth="1"/>
+    <col min="23" max="23" width="13.5" customWidth="1"/>
+    <col min="24" max="24" width="13.3984375" customWidth="1"/>
+    <col min="25" max="25" width="13.19921875" customWidth="1"/>
+    <col min="27" max="27" width="14.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2496,62 +2522,65 @@
       <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
+      <c r="I1" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>127</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>128</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>129</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>130</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>131</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>132</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>133</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>134</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>135</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>136</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:27">
       <c r="A2" s="20">
         <v>0</v>
       </c>
@@ -2566,7 +2595,7 @@
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:26" ht="25.9" customHeight="1">
+    <row r="3" spans="1:27" ht="25.95" customHeight="1">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -2585,7 +2614,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="31.15" customHeight="1">
+    <row r="4" spans="1:27" ht="31.2" customHeight="1">
       <c r="A4" s="20">
         <v>1</v>
       </c>
@@ -2604,7 +2633,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="25.9" customHeight="1">
+    <row r="5" spans="1:27" ht="25.95" customHeight="1">
       <c r="A5" s="20">
         <v>1</v>
       </c>
@@ -2623,7 +2652,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:27">
       <c r="A6" s="20">
         <v>1</v>
       </c>
@@ -2642,7 +2671,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:27">
       <c r="A7" s="20">
         <v>1</v>
       </c>
@@ -2661,7 +2690,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="28.15" customHeight="1">
+    <row r="8" spans="1:27" ht="28.2" customHeight="1">
       <c r="A8" s="20">
         <v>3</v>
       </c>
@@ -2673,14 +2702,14 @@
         <v>126</v>
       </c>
       <c r="G8" s="22"/>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>125</v>
       </c>
-      <c r="P8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="30" customHeight="1">
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="30" customHeight="1">
       <c r="A9" s="20">
         <v>3</v>
       </c>
@@ -2692,32 +2721,32 @@
         <v>141</v>
       </c>
       <c r="G9" s="20"/>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>138</v>
       </c>
-      <c r="P9" t="b">
-        <v>1</v>
-      </c>
       <c r="Q9" t="b">
         <v>1</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
         <v>139</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>2</v>
       </c>
-      <c r="T9" t="b">
-        <v>1</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="U9" t="b">
+        <v>1</v>
+      </c>
+      <c r="V9" t="s">
         <v>140</v>
       </c>
-      <c r="V9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="W9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="20">
         <v>3</v>
       </c>
@@ -2735,11 +2764,12 @@
       <c r="H10" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="O10" t="s">
+      <c r="I10" s="22"/>
+      <c r="P10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:27">
       <c r="A11" s="20">
         <v>3</v>
       </c>
@@ -2757,11 +2787,14 @@
       <c r="H11" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="O11" t="s">
+      <c r="I11" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="P11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:27">
       <c r="A12" s="20">
         <v>3</v>
       </c>
@@ -2779,14 +2812,15 @@
       <c r="H12" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="O12" t="s">
+      <c r="I12" s="22"/>
+      <c r="P12" t="s">
         <v>142</v>
       </c>
-      <c r="W12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="X12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="20">
         <v>3</v>
       </c>
@@ -2804,14 +2838,15 @@
       <c r="H13" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="O13" t="s">
+      <c r="I13" s="22"/>
+      <c r="P13" t="s">
         <v>142</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:27">
       <c r="A14" s="20">
         <v>3</v>
       </c>
@@ -2829,11 +2864,12 @@
       <c r="H14" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="O14" t="s">
+      <c r="I14" s="22"/>
+      <c r="P14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:27">
       <c r="A15" s="20">
         <v>3</v>
       </c>
@@ -2851,11 +2887,12 @@
       <c r="H15" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="O15" t="s">
+      <c r="I15" s="22"/>
+      <c r="P15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:27">
       <c r="A16" s="20">
         <v>3</v>
       </c>
@@ -2873,11 +2910,12 @@
       <c r="H16" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="O16" t="s">
+      <c r="I16" s="22"/>
+      <c r="P16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:16">
       <c r="A17" s="20">
         <v>3</v>
       </c>
@@ -2895,11 +2933,12 @@
       <c r="H17" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="O17" t="s">
+      <c r="I17" s="22"/>
+      <c r="P17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:16">
       <c r="A18" s="20">
         <v>3</v>
       </c>
@@ -2918,22 +2957,23 @@
       <c r="H18" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="O18" t="s">
+      <c r="I18" s="22"/>
+      <c r="P18" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:16">
       <c r="A19" s="20">
         <v>3</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:16">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -2941,7 +2981,7 @@
       <c r="E20" s="1"/>
       <c r="G20" s="20"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:16">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -2950,7 +2990,7 @@
       <c r="F21" s="24"/>
       <c r="G21" s="20"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:16">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -2959,7 +2999,7 @@
       <c r="F22" s="25"/>
       <c r="G22" s="20"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:16">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -2968,7 +3008,7 @@
       <c r="F23" s="26"/>
       <c r="G23" s="20"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:16">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -2977,7 +3017,7 @@
       <c r="F24" s="25"/>
       <c r="G24" s="20"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:16">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -2986,7 +3026,7 @@
       <c r="F25" s="26"/>
       <c r="G25" s="20"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:16">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -2995,27 +3035,27 @@
       <c r="F26" s="24"/>
       <c r="G26" s="20"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:16">
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:16">
       <c r="E28" s="1"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:16">
       <c r="E29" s="1"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:16">
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:16">
       <c r="E31" s="1"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:16">
       <c r="E32" s="1"/>
       <c r="F32" s="7"/>
     </row>
@@ -3180,7 +3220,7 @@
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E8 G3:G8 E10:E18 H10:H18 G18 F19 E20:E67">
+  <conditionalFormatting sqref="E3:E8 G3:G8 E10:E18 H10:I18 G18 F19 E20:E67">
     <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="나레이션">
       <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
     </cfRule>
@@ -3203,22 +3243,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6657601-61C0-480F-AB83-2DBC653E47EB}">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="65.25" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
-    <col min="11" max="11" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="10.69921875" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" customWidth="1"/>
+    <col min="6" max="6" width="65.19921875" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" customWidth="1"/>
+    <col min="12" max="12" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3243,62 +3284,65 @@
       <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
+      <c r="I1" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>127</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>128</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>129</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>130</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>131</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>132</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>133</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>134</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>135</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>136</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3315,7 +3359,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3332,7 +3376,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3349,7 +3393,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3366,7 +3410,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3383,7 +3427,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3400,7 +3444,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3416,8 +3460,11 @@
       <c r="G8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="I8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3434,7 +3481,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3451,7 +3498,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3468,7 +3515,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3485,7 +3532,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3502,7 +3549,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3519,7 +3566,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3536,7 +3583,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3553,7 +3600,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3570,7 +3617,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3587,7 +3634,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3604,7 +3651,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3621,7 +3668,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="64.150000000000006" customHeight="1">
+    <row r="21" spans="1:9" ht="64.2" customHeight="1">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3637,8 +3684,11 @@
       <c r="G21" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3655,7 +3705,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3672,7 +3722,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>0</v>
       </c>
@@ -3727,21 +3777,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238D0EFE-81E1-47C2-A049-8B0CE59399BB}">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="42.875" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="17.59765625" customWidth="1"/>
+    <col min="6" max="6" width="42.8984375" customWidth="1"/>
+    <col min="7" max="7" width="16.59765625" customWidth="1"/>
+    <col min="8" max="9" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3766,62 +3816,65 @@
       <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
+      <c r="I1" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>127</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>128</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>129</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>130</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>131</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>132</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>133</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>134</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>135</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>136</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3838,7 +3891,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3855,7 +3908,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3872,7 +3925,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3888,8 +3941,11 @@
       <c r="G5" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="I5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3906,7 +3962,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3923,7 +3979,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3940,7 +3996,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3957,7 +4013,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3974,7 +4030,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3991,7 +4047,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="40.5">
+    <row r="12" spans="1:27" ht="46.8">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4008,7 +4064,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4025,7 +4081,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4042,7 +4098,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4059,7 +4115,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>1</v>
       </c>
@@ -4076,7 +4132,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>1</v>
       </c>
@@ -4093,7 +4149,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>1</v>
       </c>
@@ -4110,7 +4166,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>1</v>
       </c>
@@ -4127,7 +4183,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>1</v>
       </c>
@@ -4144,7 +4200,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4161,7 +4217,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4178,7 +4234,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>1</v>
       </c>
@@ -4194,8 +4250,11 @@
       <c r="G23" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>0</v>
       </c>
@@ -4250,20 +4309,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182FEB49-7C04-4FD4-83C9-C5B9D07B8763}">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="45.75" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="45.69921875" customWidth="1"/>
+    <col min="7" max="7" width="14.8984375" customWidth="1"/>
+    <col min="9" max="9" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -4288,62 +4348,65 @@
       <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
+      <c r="I1" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>127</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>128</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>129</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>130</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>131</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>132</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>133</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>134</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>135</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>136</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4360,7 +4423,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4377,7 +4440,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4394,7 +4457,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4411,7 +4474,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4428,7 +4491,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4445,7 +4508,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4462,7 +4525,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4479,7 +4542,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4496,7 +4559,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4512,8 +4575,11 @@
       <c r="G11" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="I11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4530,7 +4596,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4547,7 +4613,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>0</v>
       </c>
@@ -4602,25 +4668,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CD0CE6-8A09-40C8-B7EB-05D0DE918DCB}">
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="18.69921875" customWidth="1"/>
     <col min="6" max="6" width="63.5" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="8" width="36.375" customWidth="1"/>
-    <col min="15" max="15" width="14.75" customWidth="1"/>
-    <col min="16" max="16" width="9.875" customWidth="1"/>
-    <col min="17" max="18" width="8.75" customWidth="1"/>
-    <col min="23" max="23" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="14.59765625" customWidth="1"/>
+    <col min="8" max="9" width="36.3984375" customWidth="1"/>
+    <col min="16" max="16" width="14.69921875" customWidth="1"/>
+    <col min="17" max="17" width="9.8984375" customWidth="1"/>
+    <col min="18" max="19" width="8.69921875" customWidth="1"/>
+    <col min="24" max="24" width="13.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -4645,73 +4711,76 @@
       <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
+      <c r="I1" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>127</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>128</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>129</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>130</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>131</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>132</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>133</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>134</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>135</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>136</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>148</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4727,11 +4796,12 @@
       <c r="H3" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="O3" t="s">
+      <c r="I3" s="22"/>
+      <c r="P3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4745,12 +4815,13 @@
         <v>86</v>
       </c>
       <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-      <c r="O4" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+      <c r="P4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4764,12 +4835,13 @@
         <v>160</v>
       </c>
       <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="O5" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="P5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4783,12 +4855,15 @@
         <v>87</v>
       </c>
       <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
-      <c r="O6" t="s">
+      <c r="I6" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="P6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4802,12 +4877,13 @@
         <v>88</v>
       </c>
       <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="O7" t="s">
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+      <c r="P7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4821,12 +4897,13 @@
         <v>89</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="O8" t="s">
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+      <c r="P8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>3</v>
       </c>
@@ -4840,12 +4917,13 @@
         <v>90</v>
       </c>
       <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
-      <c r="O9" t="s">
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+      <c r="P9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4858,11 +4936,11 @@
       <c r="F10" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>3</v>
       </c>
@@ -4878,18 +4956,19 @@
       <c r="H11" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="O11" t="s">
+      <c r="I11" s="22"/>
+      <c r="J11" s="13"/>
+      <c r="P11" t="s">
         <v>142</v>
       </c>
-      <c r="P11" t="b">
-        <v>1</v>
-      </c>
-      <c r="W11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="Q11" t="b">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>3</v>
       </c>
@@ -4898,12 +4977,13 @@
         <v>150</v>
       </c>
       <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
-      <c r="O12" t="s">
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="P12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4917,12 +4997,13 @@
         <v>93</v>
       </c>
       <c r="H13" s="12"/>
-      <c r="I13" s="13"/>
-      <c r="O13" t="s">
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="P13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>3</v>
       </c>
@@ -4936,12 +5017,13 @@
         <v>94</v>
       </c>
       <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
-      <c r="O14" t="s">
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+      <c r="P14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>3</v>
       </c>
@@ -4955,12 +5037,15 @@
         <v>95</v>
       </c>
       <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
-      <c r="O15" t="s">
+      <c r="I15" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="P15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>3</v>
       </c>
@@ -4974,12 +5059,15 @@
         <v>96</v>
       </c>
       <c r="H16" s="12"/>
-      <c r="I16" s="13"/>
-      <c r="O16" t="s">
+      <c r="I16" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="P16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:26">
       <c r="A17">
         <v>3</v>
       </c>
@@ -4993,12 +5081,13 @@
         <v>97</v>
       </c>
       <c r="H17" s="12"/>
-      <c r="I17" s="13"/>
-      <c r="O17" t="s">
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
+      <c r="P17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:26">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5012,12 +5101,13 @@
         <v>98</v>
       </c>
       <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
-      <c r="O18" t="s">
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+      <c r="P18" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:26">
       <c r="A19">
         <v>3</v>
       </c>
@@ -5031,12 +5121,13 @@
         <v>99</v>
       </c>
       <c r="H19" s="12"/>
-      <c r="I19" s="13"/>
-      <c r="O19" t="s">
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+      <c r="P19" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:26">
       <c r="A20">
         <v>3</v>
       </c>
@@ -5050,12 +5141,13 @@
         <v>100</v>
       </c>
       <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
-      <c r="O20" t="s">
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+      <c r="P20" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:26">
       <c r="A21">
         <v>3</v>
       </c>
@@ -5069,12 +5161,13 @@
         <v>101</v>
       </c>
       <c r="H21" s="12"/>
-      <c r="I21" s="13"/>
-      <c r="O21" t="s">
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+      <c r="P21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:26">
       <c r="A22">
         <v>3</v>
       </c>
@@ -5088,12 +5181,13 @@
         <v>102</v>
       </c>
       <c r="H22" s="12"/>
-      <c r="I22" s="13"/>
-      <c r="O22" t="s">
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+      <c r="P22" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:26">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5107,12 +5201,13 @@
         <v>103</v>
       </c>
       <c r="H23" s="12"/>
-      <c r="I23" s="13"/>
-      <c r="O23" t="s">
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+      <c r="P23" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:26">
       <c r="A24">
         <v>3</v>
       </c>
@@ -5126,12 +5221,13 @@
         <v>104</v>
       </c>
       <c r="H24" s="12"/>
-      <c r="I24" s="13"/>
-      <c r="O24" t="s">
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
+      <c r="P24" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="108">
+    <row r="25" spans="1:26" ht="124.8">
       <c r="A25">
         <v>3</v>
       </c>
@@ -5145,12 +5241,13 @@
         <v>105</v>
       </c>
       <c r="H25" s="12"/>
-      <c r="I25" s="13"/>
-      <c r="O25" t="s">
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
+      <c r="P25" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:26">
       <c r="A26">
         <v>3</v>
       </c>
@@ -5166,14 +5263,15 @@
       <c r="H26" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="O26" t="s">
+      <c r="I26" s="22"/>
+      <c r="P26" t="s">
         <v>142</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:26">
       <c r="A27">
         <v>3</v>
       </c>
@@ -5189,34 +5287,35 @@
       <c r="H27" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="O27" t="s">
+      <c r="I27" s="22"/>
+      <c r="P27" t="s">
         <v>142</v>
       </c>
-      <c r="W27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="X27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28">
         <v>3</v>
       </c>
       <c r="F28" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>152</v>
       </c>
-      <c r="P28" t="b">
-        <v>1</v>
-      </c>
-      <c r="X28">
+      <c r="Q28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y28">
         <v>0</v>
       </c>
-      <c r="Y28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="Z28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29">
         <v>3</v>
       </c>
@@ -5232,15 +5331,16 @@
       <c r="H29" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="I29" s="13"/>
-      <c r="O29" t="s">
+      <c r="I29" s="22"/>
+      <c r="J29" s="13"/>
+      <c r="P29" t="s">
         <v>142</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:26">
       <c r="A30">
         <v>3</v>
       </c>
@@ -5253,26 +5353,27 @@
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
-      <c r="O30" t="s">
+      <c r="I30" s="20"/>
+      <c r="P30" t="s">
         <v>138</v>
       </c>
-      <c r="P30" t="b">
-        <v>1</v>
-      </c>
       <c r="Q30" t="b">
+        <v>1</v>
+      </c>
+      <c r="R30" t="b">
         <v>0</v>
       </c>
-      <c r="T30" t="b">
-        <v>1</v>
-      </c>
-      <c r="U30" t="s">
+      <c r="U30" t="b">
+        <v>1</v>
+      </c>
+      <c r="V30" t="s">
         <v>154</v>
       </c>
-      <c r="V30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="W30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31">
         <v>3</v>
       </c>
@@ -5286,12 +5387,13 @@
         <v>109</v>
       </c>
       <c r="H31" s="22"/>
-      <c r="I31" s="13"/>
-      <c r="O31" t="s">
+      <c r="I31" s="22"/>
+      <c r="J31" s="13"/>
+      <c r="P31" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:26">
       <c r="A32">
         <v>3</v>
       </c>
@@ -5305,12 +5407,13 @@
         <v>110</v>
       </c>
       <c r="H32" s="22"/>
-      <c r="I32" s="13"/>
-      <c r="O32" t="s">
+      <c r="I32" s="22"/>
+      <c r="J32" s="13"/>
+      <c r="P32" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33">
         <v>3</v>
       </c>
@@ -5324,12 +5427,15 @@
         <v>111</v>
       </c>
       <c r="H33" s="20"/>
-      <c r="I33" s="13"/>
-      <c r="O33" t="s">
+      <c r="I33" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="J33" s="13"/>
+      <c r="P33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34">
         <v>3</v>
       </c>
@@ -5343,12 +5449,15 @@
         <v>112</v>
       </c>
       <c r="H34" s="22"/>
-      <c r="I34" s="13"/>
-      <c r="O34" t="s">
+      <c r="I34" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="J34" s="13"/>
+      <c r="P34" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35">
         <v>3</v>
       </c>
@@ -5362,12 +5471,13 @@
         <v>113</v>
       </c>
       <c r="H35" s="22"/>
-      <c r="I35" s="13"/>
-      <c r="O35" t="s">
+      <c r="I35" s="22"/>
+      <c r="J35" s="13"/>
+      <c r="P35" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36">
         <v>3</v>
       </c>
@@ -5381,12 +5491,13 @@
         <v>114</v>
       </c>
       <c r="H36" s="22"/>
-      <c r="I36" s="13"/>
-      <c r="O36" t="s">
+      <c r="I36" s="22"/>
+      <c r="J36" s="13"/>
+      <c r="P36" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37">
         <v>3</v>
       </c>
@@ -5400,12 +5511,13 @@
         <v>115</v>
       </c>
       <c r="H37" s="22"/>
-      <c r="I37" s="13"/>
-      <c r="O37" t="s">
+      <c r="I37" s="22"/>
+      <c r="J37" s="13"/>
+      <c r="P37" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38">
         <v>3</v>
       </c>
@@ -5418,26 +5530,27 @@
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
-      <c r="O38" t="s">
+      <c r="I38" s="20"/>
+      <c r="P38" t="s">
         <v>138</v>
       </c>
-      <c r="P38" t="b">
-        <v>1</v>
-      </c>
       <c r="Q38" t="b">
+        <v>1</v>
+      </c>
+      <c r="R38" t="b">
         <v>0</v>
       </c>
-      <c r="T38" t="b">
-        <v>1</v>
-      </c>
-      <c r="U38" t="s">
+      <c r="U38" t="b">
+        <v>1</v>
+      </c>
+      <c r="V38" t="s">
         <v>140</v>
       </c>
-      <c r="V38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="W38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39">
         <v>3</v>
       </c>
@@ -5451,12 +5564,13 @@
         <v>116</v>
       </c>
       <c r="H39" s="22"/>
-      <c r="I39" s="13"/>
-      <c r="O39" t="s">
+      <c r="I39" s="22"/>
+      <c r="J39" s="13"/>
+      <c r="P39" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40">
         <v>3</v>
       </c>
@@ -5470,12 +5584,13 @@
         <v>117</v>
       </c>
       <c r="H40" s="22"/>
-      <c r="I40" s="13"/>
-      <c r="O40" t="s">
+      <c r="I40" s="22"/>
+      <c r="J40" s="13"/>
+      <c r="P40" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41">
         <v>3</v>
       </c>
@@ -5491,15 +5606,16 @@
       <c r="H41" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="I41" s="13"/>
-      <c r="O41" t="s">
+      <c r="I41" s="22"/>
+      <c r="J41" s="13"/>
+      <c r="P41" t="s">
         <v>146</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42">
         <v>3</v>
       </c>
@@ -5513,20 +5629,22 @@
         <v>119</v>
       </c>
       <c r="H42" s="22"/>
-      <c r="I42" s="13"/>
-      <c r="O42" t="s">
+      <c r="I42" s="22"/>
+      <c r="J42" s="13"/>
+      <c r="P42" t="s">
         <v>142</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:24">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="H43" s="20"/>
-      <c r="N43">
+      <c r="I43" s="20"/>
+      <c r="O43">
         <v>5</v>
       </c>
     </row>
@@ -5551,17 +5669,17 @@
       <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E27 H4:H7 H9 H11:H21 H23:H25 E29 H29 H31:H32 E31:E37 H34:H37 E39:E42 H39:H42">
+  <conditionalFormatting sqref="E3:E27 H4:I7 H9:I9 H11:I21 H23:I25 E29 H29:I29 H31:I32 E31:E37 H34:I37 E39:E42 H39:I42">
     <cfRule type="containsText" dxfId="19" priority="32" operator="containsText" text="{{PLAYER_NAME}}">
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E27 H9 H11:H21 E29 H29 H31:H32 E31:E37 H34:H37 E39:E42 H39:H42 H4:H7 H23:H25">
+  <conditionalFormatting sqref="E3:E27 H9:I9 H11:I21 E29 H29:I29 H31:I32 E31:E37 H34:I37 E39:E42 H39:I42 H4:I7 H23:I25">
     <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="미나츠">
       <formula>NOT(ISERROR(SEARCH("미나츠",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E27 H9 H11:H21 E29 H29 H31:H32 E31:E37 H34:H37 E39:E42 H39:H42">
+  <conditionalFormatting sqref="E3:E27 H9:I9 H11:I21 E29 H29:I29 H31:I32 E31:E37 H34:I37 E39:E42 H39:I42">
     <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="히나">
       <formula>NOT(ISERROR(SEARCH("히나",E3)))</formula>
     </cfRule>
@@ -5569,7 +5687,7 @@
       <formula>NOT(ISERROR(SEARCH("아야카",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="H3:I3">
     <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="미나츠">
       <formula>NOT(ISERROR(SEARCH("미나츠",H3)))</formula>
     </cfRule>
@@ -5577,7 +5695,7 @@
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H7">
+  <conditionalFormatting sqref="H3:I7">
     <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="나레이션">
       <formula>NOT(ISERROR(SEARCH("나레이션",H3)))</formula>
     </cfRule>
@@ -5588,7 +5706,7 @@
       <formula>NOT(ISERROR(SEARCH("아야카",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H11:I11">
     <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="나레이션">
       <formula>NOT(ISERROR(SEARCH("나레이션",H11)))</formula>
     </cfRule>
@@ -5605,12 +5723,12 @@
       <formula>NOT(ISERROR(SEARCH("{{PLAYER_NAME}}",H11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H21 E3:E27 H9 E29 H29 H31:H32 E31:E37 H34:H37 E39:E42 H39:H42">
+  <conditionalFormatting sqref="H11:I21 E3:E27 H9:I9 E29 H29:I29 H31:I32 E31:E37 H34:I37 E39:E42 H39:I42">
     <cfRule type="containsText" dxfId="5" priority="28" operator="containsText" text="나레이션">
       <formula>NOT(ISERROR(SEARCH("나레이션",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:H27">
+  <conditionalFormatting sqref="H23:I27">
     <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="나레이션">
       <formula>NOT(ISERROR(SEARCH("나레이션",H23)))</formula>
     </cfRule>
@@ -5621,7 +5739,7 @@
       <formula>NOT(ISERROR(SEARCH("아야카",H23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26:H27">
+  <conditionalFormatting sqref="H26:I27">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="미나츠">
       <formula>NOT(ISERROR(SEARCH("미나츠",H26)))</formula>
     </cfRule>
